--- a/005_品質マネジメント/テスト項目書_シナリオテスト.xlsx
+++ b/005_品質マネジメント/テスト項目書_シナリオテスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanakahda/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanakahda/Desktop/project-management-toolbox/005_品質マネジメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60E6075-1E47-CC4F-AB7F-15DBC211D011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1523026-4FB8-C44B-9113-D47E27577812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17080" xr2:uid="{3802EA87-C52D-F748-9D44-255A88B2D9B6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Project：</t>
     <phoneticPr fontId="3"/>
@@ -160,19 +160,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>入力元（画面名など）</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ニュウリョク </t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t xml:space="preserve">ガメンメイ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <r>
       <t>作成日：</t>
     </r>
@@ -186,13 +173,6 @@
       <t>2011/1/19</t>
     </r>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>個装箱デザイン</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">コソウバコ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -272,8 +252,21 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>a</t>
+    <t>プロジェクトX</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力先（画面名など）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">サキ </t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">ガメンメイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1087,51 +1080,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1147,6 +1095,51 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1479,7 +1472,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="14"/>
@@ -1747,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" thickBot="1">
@@ -1776,30 +1769,28 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A4" s="68">
+      <c r="A4" s="53">
         <v>1</v>
       </c>
-      <c r="B4" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
     </row>
     <row r="5" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A5" s="68">
+      <c r="A5" s="53">
         <v>2</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A6" s="72">
+      <c r="A6" s="57">
         <v>3</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1820,7 +1811,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="14"/>
@@ -2469,13 +2460,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="70"/>
       <c r="C1" s="44" t="str">
         <f>IF(テストシナリオ一覧!$B$1="","",テストシナリオ一覧!$B$1)</f>
-        <v>個装箱デザイン</v>
+        <v>プロジェクトX</v>
       </c>
       <c r="D1" s="10"/>
       <c r="F1" s="47" t="s">
@@ -2488,14 +2479,14 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="19">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="45"/>
       <c r="D2" s="10"/>
       <c r="F2" s="49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" s="50">
         <f>COUNTIF($H$7:$H$65536,"OK")</f>
@@ -2504,14 +2495,14 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="20" thickBot="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="67"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="46"/>
       <c r="D3" s="10"/>
       <c r="F3" s="51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" s="52">
         <f>COUNTIF($H$7:$H$65536,"NG")</f>
@@ -2523,27 +2514,27 @@
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>17</v>
+      <c r="B5" s="62" t="s">
+        <v>23</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="57" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:9" ht="60" customHeight="1" thickBot="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="41" t="s">
         <v>11</v>
       </c>
@@ -2557,10 +2548,10 @@
         <v>14</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>15</v>
